--- a/Datasets/Acceso a internet fijo - banda ancha y banda angosta.xlsx
+++ b/Datasets/Acceso a internet fijo - banda ancha y banda angosta.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dsdrajlin/Library/CloudStorage/GoogleDrive-dsdrajlin@gmail.com/Mi unidad/_Archive/Henry/LABS/PI DA/PI-02/Datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA6ED0FD-E871-5C40-9C5F-253EFA67E067}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C40B330-AFDF-B04A-9893-C15707116A23}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1531,8 +1531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XEY865"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="125" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A802" sqref="A1:F1048576"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
